--- a/docs/dwworksheet/High_Level_Dimensional_Modeling_Workbook.xlsx
+++ b/docs/dwworksheet/High_Level_Dimensional_Modeling_Workbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ff47dbd60957bc3/Desktop/remitproworkstation/data-warehouse-poc/docs/dwworksheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ff47dbd60957bc3/Desktop/remitproworkstation/data-warehouse/docs/dwworksheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_EE58D9C42079E042CC2ADDA3843172BBE23BFBFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D2A2470-0EE9-4122-9150-12F5F0688A95}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_EE58D9C42079E042CC2ADDA3843172BBE23BFBFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01796DA5-99AD-4638-939D-5362BD7B92F7}"/>
   <bookViews>
-    <workbookView xWindow="216" yWindow="552" windowWidth="21600" windowHeight="11232" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="216" yWindow="264" windowWidth="16224" windowHeight="11520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="5" r:id="rId1"/>
@@ -577,7 +577,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Description</t>
   </si>
@@ -600,27 +600,6 @@
     <t>Fact
 Grain
 Type</t>
-  </si>
-  <si>
-    <t>Dim8</t>
-  </si>
-  <si>
-    <t>Dim9</t>
-  </si>
-  <si>
-    <t>Dim10</t>
-  </si>
-  <si>
-    <t>Dim11</t>
-  </si>
-  <si>
-    <t>Dim12</t>
-  </si>
-  <si>
-    <t>Dim13</t>
-  </si>
-  <si>
-    <t>Dim14</t>
   </si>
   <si>
     <t>Instructions!</t>
@@ -680,47 +659,113 @@
     <t>DimCustomer</t>
   </si>
   <si>
-    <t>DimPromosion</t>
-  </si>
-  <si>
-    <t>DimCurrency</t>
-  </si>
-  <si>
-    <t>DimSalesTerrytory</t>
-  </si>
-  <si>
-    <t>FactInternetSales</t>
-  </si>
-  <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>FactInternetSalesReason</t>
-  </si>
-  <si>
-    <t>DimSalesReason</t>
-  </si>
-  <si>
-    <t>FactProductInventory</t>
   </si>
   <si>
     <t>DimProduct</t>
   </si>
   <si>
-    <t>Internet Sales</t>
+    <t>DimEmployee</t>
   </si>
   <si>
-    <t xml:space="preserve">Internet Sales Reason </t>
+    <t>Sales</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Inventory </t>
+    <t>FactSales</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>ContactTitle</t>
+  </si>
+  <si>
+    <t>CustomerCountry</t>
+  </si>
+  <si>
+    <t>CustomerRegion</t>
+  </si>
+  <si>
+    <t>CustomerCity</t>
+  </si>
+  <si>
+    <t>CustomerPostalCode</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>FullDateUSA</t>
+  </si>
+  <si>
+    <t>DayOfWeek</t>
+  </si>
+  <si>
+    <t>DayName</t>
+  </si>
+  <si>
+    <t>DayOfMonth</t>
+  </si>
+  <si>
+    <t>DayOfYear</t>
+  </si>
+  <si>
+    <t>WeekOfYear</t>
+  </si>
+  <si>
+    <t>MonthName</t>
+  </si>
+  <si>
+    <t>MonthOfYear</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>QuarterName</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>IsWeekday</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>SupplierName</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>EmployeeTitle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,6 +802,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -818,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -847,6 +897,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,11 +1672,11 @@
   </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1636,7 +1692,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1656,72 +1712,52 @@
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1734,12 +1770,8 @@
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1748,9 +1780,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1761,26 +1791,18 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -2181,9 +2203,9 @@
   </sheetPr>
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B12"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2198,227 +2220,291 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="B20" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="B26" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="B27" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="B28" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="B30" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="B31" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2688,31 +2774,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">

--- a/docs/dwworksheet/High_Level_Dimensional_Modeling_Workbook.xlsx
+++ b/docs/dwworksheet/High_Level_Dimensional_Modeling_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ff47dbd60957bc3/Desktop/remitproworkstation/data-warehouse/docs/dwworksheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_EE58D9C42079E042CC2ADDA3843172BBE23BFBFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01796DA5-99AD-4638-939D-5362BD7B92F7}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="11_EE58D9C42079E042CC2ADDA3843172BBE23BFBFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69AD690E-E9A6-4E94-AE06-641B232B1FC3}"/>
   <bookViews>
-    <workbookView xWindow="216" yWindow="264" windowWidth="16224" windowHeight="11520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="5" r:id="rId1"/>
@@ -19,12 +19,24 @@
     <sheet name="Issues List" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Attributes &amp; Metrics'!$A$2:$E$322</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Issues List'!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -577,7 +589,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="290">
   <si>
     <t>Description</t>
   </si>
@@ -668,97 +680,799 @@
     <t>DimEmployee</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>FactSales</t>
-  </si>
-  <si>
-    <t>CustomerID</t>
-  </si>
-  <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
-    <t>ContactName</t>
-  </si>
-  <si>
-    <t>ContactTitle</t>
-  </si>
-  <si>
-    <t>CustomerCountry</t>
-  </si>
-  <si>
-    <t>CustomerRegion</t>
-  </si>
-  <si>
-    <t>CustomerCity</t>
-  </si>
-  <si>
-    <t>CustomerPostalCode</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>FullDateUSA</t>
-  </si>
-  <si>
-    <t>DayOfWeek</t>
-  </si>
-  <si>
-    <t>DayName</t>
-  </si>
-  <si>
-    <t>DayOfMonth</t>
-  </si>
-  <si>
-    <t>DayOfYear</t>
-  </si>
-  <si>
-    <t>WeekOfYear</t>
-  </si>
-  <si>
-    <t>MonthName</t>
-  </si>
-  <si>
-    <t>MonthOfYear</t>
-  </si>
-  <si>
-    <t>Quarter</t>
-  </si>
-  <si>
-    <t>QuarterName</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>IsWeekday</t>
-  </si>
-  <si>
-    <t>ProductID</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
-    <t>SupplierName</t>
-  </si>
-  <si>
-    <t>CategoryName</t>
-  </si>
-  <si>
-    <t>EmployeeID</t>
-  </si>
-  <si>
-    <t>EmployeeName</t>
-  </si>
-  <si>
-    <t>EmployeeTitle</t>
+    <t>DimAccount</t>
+  </si>
+  <si>
+    <t>DimCurrency</t>
+  </si>
+  <si>
+    <t>DimDepartmentGroup</t>
+  </si>
+  <si>
+    <t>DimGeography</t>
+  </si>
+  <si>
+    <t>DimOrganization</t>
+  </si>
+  <si>
+    <t>DimProductCategory</t>
+  </si>
+  <si>
+    <t>DimProductSubCategory</t>
+  </si>
+  <si>
+    <t>DimPromosion</t>
+  </si>
+  <si>
+    <t>DimReseller</t>
+  </si>
+  <si>
+    <t>DimSalesReason</t>
+  </si>
+  <si>
+    <t>DimSalesTerritory</t>
+  </si>
+  <si>
+    <t>DimScenerio</t>
+  </si>
+  <si>
+    <t>FactAdditionalInternationalProductDescription</t>
+  </si>
+  <si>
+    <t>FactCallCenter</t>
+  </si>
+  <si>
+    <t>International product description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call center </t>
+  </si>
+  <si>
+    <t>FactCurrencyRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the rate of currency </t>
+  </si>
+  <si>
+    <t>FactFinance</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>FactInternetSales</t>
+  </si>
+  <si>
+    <t>Internet sales</t>
+  </si>
+  <si>
+    <t>FactInternetSalesReason</t>
+  </si>
+  <si>
+    <t>Sales reason</t>
+  </si>
+  <si>
+    <t>FactProductInventory</t>
+  </si>
+  <si>
+    <t>Product inventory</t>
+  </si>
+  <si>
+    <t>FactResellerSales</t>
+  </si>
+  <si>
+    <t>Reseller sales</t>
+  </si>
+  <si>
+    <t>FactSalesQuota</t>
+  </si>
+  <si>
+    <t>Sales quota</t>
+  </si>
+  <si>
+    <t>FactSurveyResponse</t>
+  </si>
+  <si>
+    <t>Survey response</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AccountKey</t>
+  </si>
+  <si>
+    <t>ParentAccountKey</t>
+  </si>
+  <si>
+    <t>AccountCodeAlternateKey</t>
+  </si>
+  <si>
+    <t>ParentAccountCodeAlternateKey</t>
+  </si>
+  <si>
+    <t>AccountDescription</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>CustomMembers</t>
+  </si>
+  <si>
+    <t>ValueType</t>
+  </si>
+  <si>
+    <t>CustomMemberOptions</t>
+  </si>
+  <si>
+    <t>CurrencyKey</t>
+  </si>
+  <si>
+    <t>CurrencyAlternateKey</t>
+  </si>
+  <si>
+    <t>CurrencyName</t>
+  </si>
+  <si>
+    <t>GeographyKey</t>
+  </si>
+  <si>
+    <t>CustomerAlternateKey</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>NameStyle</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>CommuteDistance</t>
+  </si>
+  <si>
+    <t>CustomerKey</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>YearlyIncome</t>
+  </si>
+  <si>
+    <t>TotalChildren</t>
+  </si>
+  <si>
+    <t>NumberChildrenAtHome</t>
+  </si>
+  <si>
+    <t>EnglishEducation</t>
+  </si>
+  <si>
+    <t>SpanishEducation</t>
+  </si>
+  <si>
+    <t>FrenchEducation</t>
+  </si>
+  <si>
+    <t>EnglishOccupation</t>
+  </si>
+  <si>
+    <t>SpanishOccupation</t>
+  </si>
+  <si>
+    <t>FrenchOccupation</t>
+  </si>
+  <si>
+    <t>HouseOwnerFlag</t>
+  </si>
+  <si>
+    <t>NumberCarsOwned</t>
+  </si>
+  <si>
+    <t>AddressLine1</t>
+  </si>
+  <si>
+    <t>AddressLine2</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>DateFirstPurchase</t>
+  </si>
+  <si>
+    <t>DateKey</t>
+  </si>
+  <si>
+    <t>FullDateAlternateKey</t>
+  </si>
+  <si>
+    <t>DayNumberOfWeek</t>
+  </si>
+  <si>
+    <t>EnglishDayNameOfWeek</t>
+  </si>
+  <si>
+    <t>SpanishDayNameOfWeek</t>
+  </si>
+  <si>
+    <t>FrenchDayNameOfWeek</t>
+  </si>
+  <si>
+    <t>DayNumberOfMonth</t>
+  </si>
+  <si>
+    <t>DayNumberOfYear</t>
+  </si>
+  <si>
+    <t>WeekNumberOfYear</t>
+  </si>
+  <si>
+    <t>EnglishMonthName</t>
+  </si>
+  <si>
+    <t>SpanishMonthName</t>
+  </si>
+  <si>
+    <t>FrenchMonthName</t>
+  </si>
+  <si>
+    <t>MonthNumberOfYear</t>
+  </si>
+  <si>
+    <t>CalendarQuarter</t>
+  </si>
+  <si>
+    <t>CalendarYear</t>
+  </si>
+  <si>
+    <t>CalendarSemester</t>
+  </si>
+  <si>
+    <t>FiscalQuarter</t>
+  </si>
+  <si>
+    <t>FiscalYear</t>
+  </si>
+  <si>
+    <t>FiscalSemester</t>
+  </si>
+  <si>
+    <t>DepartmentGroupKey</t>
+  </si>
+  <si>
+    <t>ParentDepartmentGroupKey</t>
+  </si>
+  <si>
+    <t>DepartmentGroupName</t>
+  </si>
+  <si>
+    <t>EmployeeKey</t>
+  </si>
+  <si>
+    <t>ParentEmployeeKey</t>
+  </si>
+  <si>
+    <t>EmployeeNationalIDAlternateKey</t>
+  </si>
+  <si>
+    <t>ParentEmployeeNationalIDAlternateKey</t>
+  </si>
+  <si>
+    <t>SalesTerritoryKey</t>
+  </si>
+  <si>
+    <t>HireDate</t>
+  </si>
+  <si>
+    <t>LoginID</t>
+  </si>
+  <si>
+    <t>EmergencyContactName</t>
+  </si>
+  <si>
+    <t>EmergencyContactPhone</t>
+  </si>
+  <si>
+    <t>SalariedFlag</t>
+  </si>
+  <si>
+    <t>PayFrequency</t>
+  </si>
+  <si>
+    <t>BaseRate</t>
+  </si>
+  <si>
+    <t>VacationHours</t>
+  </si>
+  <si>
+    <t>SickLeaveHours</t>
+  </si>
+  <si>
+    <t>CurrentFlag</t>
+  </si>
+  <si>
+    <t>SalesPersonFlag</t>
+  </si>
+  <si>
+    <t>DepartmentName</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>EmployeePhoto</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>StateProvinceCode</t>
+  </si>
+  <si>
+    <t>StateProvinceName</t>
+  </si>
+  <si>
+    <t>CountryRegionCode</t>
+  </si>
+  <si>
+    <t>EnglishCountryRegionName</t>
+  </si>
+  <si>
+    <t>SpanishCountryRegionName</t>
+  </si>
+  <si>
+    <t>FrenchCountryRegionName</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>IpAddressLocator</t>
+  </si>
+  <si>
+    <t>OrganizationKey</t>
+  </si>
+  <si>
+    <t>ParentOrganizationKey</t>
+  </si>
+  <si>
+    <t>PercentageOfOwnership</t>
+  </si>
+  <si>
+    <t>OrganizationName</t>
+  </si>
+  <si>
+    <t>ProductKey</t>
+  </si>
+  <si>
+    <t>ProductAlternateKey</t>
+  </si>
+  <si>
+    <t>ProductSubcategoryKey</t>
+  </si>
+  <si>
+    <t>WeightUnitMeasureCode</t>
+  </si>
+  <si>
+    <t>SizeUnitMeasureCode</t>
+  </si>
+  <si>
+    <t>EnglishProductName</t>
+  </si>
+  <si>
+    <t>SpanishProductName</t>
+  </si>
+  <si>
+    <t>FrenchProductName</t>
+  </si>
+  <si>
+    <t>StandardCost</t>
+  </si>
+  <si>
+    <t>FinishedGoodsFlag</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>SafetyStockLevel</t>
+  </si>
+  <si>
+    <t>ReorderPoint</t>
+  </si>
+  <si>
+    <t>ListPrice</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>SizeRange</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>DaysToManufacture</t>
+  </si>
+  <si>
+    <t>ProductLine</t>
+  </si>
+  <si>
+    <t>DealerPrice</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>ModelName</t>
+  </si>
+  <si>
+    <t>LargePhoto</t>
+  </si>
+  <si>
+    <t>EnglishDescription</t>
+  </si>
+  <si>
+    <t>FrenchDescription</t>
+  </si>
+  <si>
+    <t>ChineseDescription</t>
+  </si>
+  <si>
+    <t>ArabicDescription</t>
+  </si>
+  <si>
+    <t>HebrewDescription</t>
+  </si>
+  <si>
+    <t>ThaiDescription</t>
+  </si>
+  <si>
+    <t>GermanDescription</t>
+  </si>
+  <si>
+    <t>JapaneseDescription</t>
+  </si>
+  <si>
+    <t>TurkishDescription</t>
+  </si>
+  <si>
+    <t>ProductCategoryKey</t>
+  </si>
+  <si>
+    <t>ProductCategoryAlternateKey</t>
+  </si>
+  <si>
+    <t>EnglishProductCategoryName</t>
+  </si>
+  <si>
+    <t>SpanishProductCategoryName</t>
+  </si>
+  <si>
+    <t>FrenchProductCategoryName</t>
+  </si>
+  <si>
+    <t>ProductSubcategoryAlternateKey</t>
+  </si>
+  <si>
+    <t>EnglishProductSubcategoryName</t>
+  </si>
+  <si>
+    <t>SpanishProductSubcategoryName</t>
+  </si>
+  <si>
+    <t>FrenchProductSubcategoryName</t>
+  </si>
+  <si>
+    <t>PromotionKey</t>
+  </si>
+  <si>
+    <t>PromotionAlternateKey</t>
+  </si>
+  <si>
+    <t>EnglishPromotionName</t>
+  </si>
+  <si>
+    <t>SpanishPromotionName</t>
+  </si>
+  <si>
+    <t>FrenchPromotionName</t>
+  </si>
+  <si>
+    <t>DiscountPct</t>
+  </si>
+  <si>
+    <t>EnglishPromotionType</t>
+  </si>
+  <si>
+    <t>SpanishPromotionType</t>
+  </si>
+  <si>
+    <t>FrenchPromotionType</t>
+  </si>
+  <si>
+    <t>EnglishPromotionCategory</t>
+  </si>
+  <si>
+    <t>SpanishPromotionCategory</t>
+  </si>
+  <si>
+    <t>FrenchPromotionCategory</t>
+  </si>
+  <si>
+    <t>MinQty</t>
+  </si>
+  <si>
+    <t>MaxQty</t>
+  </si>
+  <si>
+    <t>DimPromotion</t>
+  </si>
+  <si>
+    <t>ResellerKey</t>
+  </si>
+  <si>
+    <t>ResellerAlternateKey</t>
+  </si>
+  <si>
+    <t>BusinessType</t>
+  </si>
+  <si>
+    <t>ResellerName</t>
+  </si>
+  <si>
+    <t>NumberEmployees</t>
+  </si>
+  <si>
+    <t>OrderFrequency</t>
+  </si>
+  <si>
+    <t>OrderMonth</t>
+  </si>
+  <si>
+    <t>FirstOrderYear</t>
+  </si>
+  <si>
+    <t>LastOrderYear</t>
+  </si>
+  <si>
+    <t>AnnualSales</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>MinPaymentType</t>
+  </si>
+  <si>
+    <t>MinPaymentAmount</t>
+  </si>
+  <si>
+    <t>AnnualRevenue</t>
+  </si>
+  <si>
+    <t>YearOpened</t>
+  </si>
+  <si>
+    <t>SalesReasonKey</t>
+  </si>
+  <si>
+    <t>SalesReasonAlternateKey</t>
+  </si>
+  <si>
+    <t>SalesReasonName</t>
+  </si>
+  <si>
+    <t>SalesReasonReasonType</t>
+  </si>
+  <si>
+    <t>SalesTerritoryAlternateKey</t>
+  </si>
+  <si>
+    <t>SalesTerritoryRegion</t>
+  </si>
+  <si>
+    <t>SalesTerritoryCountry</t>
+  </si>
+  <si>
+    <t>SalesTerritoryGroup</t>
+  </si>
+  <si>
+    <t>SalesTerritoryImage</t>
+  </si>
+  <si>
+    <t>ScenarioKey</t>
+  </si>
+  <si>
+    <t>ScenarioName</t>
+  </si>
+  <si>
+    <t>DimScenario</t>
+  </si>
+  <si>
+    <t>CultureName</t>
+  </si>
+  <si>
+    <t>ProductDescription</t>
+  </si>
+  <si>
+    <t>FactCallCenterID</t>
+  </si>
+  <si>
+    <t>WageType</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>LevelOneOperators</t>
+  </si>
+  <si>
+    <t>LevelTwoOperators</t>
+  </si>
+  <si>
+    <t>TotalOperators</t>
+  </si>
+  <si>
+    <t>Calls</t>
+  </si>
+  <si>
+    <t>AutomaticResponses</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>IssuesRaised</t>
+  </si>
+  <si>
+    <t>AverageTimePerIssue</t>
+  </si>
+  <si>
+    <t>ServiceGrade</t>
+  </si>
+  <si>
+    <t>AverageRate</t>
+  </si>
+  <si>
+    <t>EndOfDayRate</t>
+  </si>
+  <si>
+    <t>FinanceKey</t>
+  </si>
+  <si>
+    <t>AccountKey</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>OrderDateKey</t>
+  </si>
+  <si>
+    <t>DueDateKey</t>
+  </si>
+  <si>
+    <t>ShipDateKey</t>
+  </si>
+  <si>
+    <t>SalesOrderNumber</t>
+  </si>
+  <si>
+    <t>SalesOrderLineNumber</t>
+  </si>
+  <si>
+    <t>RevisionNumber</t>
+  </si>
+  <si>
+    <t>OrderQuantity</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>ExtendedAmount</t>
+  </si>
+  <si>
+    <t>UnitPriceDiscountPct</t>
+  </si>
+  <si>
+    <t>DiscountAmount</t>
+  </si>
+  <si>
+    <t>ProductStandardCost</t>
+  </si>
+  <si>
+    <t>TotalProductCost</t>
+  </si>
+  <si>
+    <t>SalesAmount</t>
+  </si>
+  <si>
+    <t>TaxAmt</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>CarrierTrackingNumber</t>
+  </si>
+  <si>
+    <t>CustomerPONumber</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>DueDate</t>
+  </si>
+  <si>
+    <t>ShipDate</t>
+  </si>
+  <si>
+    <t>MovementDate</t>
+  </si>
+  <si>
+    <t>UnitCost</t>
+  </si>
+  <si>
+    <t>UnitsIn</t>
+  </si>
+  <si>
+    <t>UnitsOut</t>
+  </si>
+  <si>
+    <t>UnitsBalance</t>
+  </si>
+  <si>
+    <t>SalesQuotaKey</t>
+  </si>
+  <si>
+    <t>SalesAmountQuota</t>
+  </si>
+  <si>
+    <t>SurveyResponseKey</t>
+  </si>
+  <si>
+    <t>NewFactCurrencyRate</t>
+  </si>
+  <si>
+    <t>CurrencyID</t>
+  </si>
+  <si>
+    <t>CurrencyDate</t>
   </si>
 </sst>
 </file>
@@ -1383,6 +2097,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1670,13 +2388,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1686,16 +2404,20 @@
     <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="41.5546875" style="1" customWidth="1"/>
-    <col min="6" max="19" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="17" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="3.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1723,42 +2445,65 @@
       <c r="I2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1768,14 +2513,27 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1789,19 +2547,34 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1810,55 +2583,110 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
+      <c r="T7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1871,18 +2699,35 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1894,38 +2739,78 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
+      <c r="S10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1936,15 +2821,30 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1952,13 +2852,22 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="O12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1978,8 +2887,13 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1999,8 +2913,13 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2020,8 +2939,13 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2041,8 +2965,13 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2062,8 +2991,13 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2083,8 +3017,13 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2104,8 +3043,13 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2125,8 +3069,13 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2146,8 +3095,13 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2167,45 +3121,29 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,507 +3178,4545 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="15" t="s">
+      <c r="B16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="15" t="s">
+      <c r="B64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="15" t="s">
+      <c r="B98" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="15" t="s">
+      <c r="B109" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="15" t="s">
+      <c r="B150" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="15" t="s">
+      <c r="B155" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="B177" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="16" t="s">
+      <c r="B197" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="15" t="s">
+      <c r="B201" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="15" t="s">
+      <c r="B209" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="15" t="s">
+      <c r="B212" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E215" s="3"/>
+    </row>
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E222" s="3"/>
+    </row>
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E223" s="3"/>
+    </row>
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E224" s="3"/>
+    </row>
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="15" t="s">
+      <c r="B226" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E226" s="3"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E227" s="3"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E228" s="3"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E229" s="3"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E230" s="3"/>
+    </row>
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="15" t="s">
+      <c r="B231" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E232" s="3"/>
+    </row>
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E233" s="3"/>
+    </row>
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E234" s="3"/>
+    </row>
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E236" s="3"/>
+    </row>
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E237" s="3"/>
+    </row>
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E238" s="3"/>
+    </row>
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="B239" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E239" s="3"/>
+    </row>
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E240" s="3"/>
+    </row>
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E241" s="3"/>
+    </row>
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E242" s="3"/>
+    </row>
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E243" s="3"/>
+    </row>
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E244" s="3"/>
+    </row>
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E245" s="3"/>
+    </row>
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E246" s="3"/>
+    </row>
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E247" s="3"/>
+    </row>
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E248" s="3"/>
+    </row>
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E249" s="3"/>
+    </row>
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E250" s="3"/>
+    </row>
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E251" s="3"/>
+    </row>
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E252" s="3"/>
+    </row>
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E254" s="3"/>
+    </row>
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E255" s="3"/>
+    </row>
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E256" s="3"/>
+    </row>
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E257" s="3"/>
+    </row>
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E259" s="3"/>
+    </row>
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E260" s="3"/>
+    </row>
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E261" s="3"/>
+    </row>
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E262" s="3"/>
+    </row>
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E264" s="3"/>
+    </row>
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="15" t="s">
+      <c r="B265" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E265" s="3"/>
+    </row>
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C266" s="3"/>
+      <c r="D266" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E266" s="3"/>
+    </row>
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E267" s="3"/>
+    </row>
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="15" t="s">
+      <c r="B268" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C268" s="3"/>
+      <c r="D268" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E268" s="3"/>
+    </row>
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E269" s="3"/>
+    </row>
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E270" s="3"/>
+    </row>
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E271" s="3"/>
+    </row>
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E272" s="3"/>
+    </row>
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E273" s="3"/>
+    </row>
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E274" s="3"/>
+    </row>
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="15" t="s">
+      <c r="B275" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E275" s="3"/>
+    </row>
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E276" s="3"/>
+    </row>
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E277" s="3"/>
+    </row>
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E278" s="3"/>
+    </row>
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E279" s="3"/>
+    </row>
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C282" s="3"/>
+      <c r="D282" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E282" s="3"/>
+    </row>
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E283" s="3"/>
+    </row>
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C284" s="3"/>
+      <c r="D284" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E284" s="3"/>
+    </row>
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C285" s="3"/>
+      <c r="D285" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E285" s="3"/>
+    </row>
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C286" s="3"/>
+      <c r="D286" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E286" s="3"/>
+    </row>
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E287" s="3"/>
+    </row>
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E288" s="3"/>
+    </row>
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E289" s="3"/>
+    </row>
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C290" s="3"/>
+      <c r="D290" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C292" s="3"/>
+      <c r="D292" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E293" s="3"/>
+    </row>
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E294" s="3"/>
+    </row>
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E295" s="3"/>
+    </row>
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C296" s="3"/>
+      <c r="D296" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E296" s="3"/>
+    </row>
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E297" s="3"/>
+    </row>
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C298" s="3"/>
+      <c r="D298" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E298" s="3"/>
+    </row>
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C299" s="3"/>
+      <c r="D299" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E299" s="3"/>
+    </row>
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C300" s="3"/>
+      <c r="D300" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E300" s="3"/>
+    </row>
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C301" s="3"/>
+      <c r="D301" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E301" s="3"/>
+    </row>
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="B302" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C302" s="3"/>
+      <c r="D302" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E302" s="3"/>
+    </row>
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C303" s="3"/>
+      <c r="D303" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E303" s="3"/>
+    </row>
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C304" s="3"/>
+      <c r="D304" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E304" s="3"/>
+    </row>
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C305" s="3"/>
+      <c r="D305" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E305" s="3"/>
+    </row>
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E306" s="3"/>
+    </row>
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C307" s="3"/>
+      <c r="D307" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E307" s="3"/>
+    </row>
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E308" s="3"/>
+    </row>
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E309" s="3"/>
+    </row>
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E310" s="3"/>
+    </row>
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E311" s="3"/>
+    </row>
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E312" s="3"/>
+    </row>
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E313" s="3"/>
+    </row>
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E314" s="3"/>
+    </row>
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E315" s="3"/>
+    </row>
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E316" s="3"/>
+    </row>
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C317" s="3"/>
+      <c r="D317" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E317" s="3"/>
+    </row>
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E318" s="3"/>
+    </row>
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E319" s="3"/>
+    </row>
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E320" s="3"/>
+    </row>
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E321" s="3"/>
+    </row>
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C322" s="3"/>
+      <c r="D322" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E322" s="3"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="3"/>
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
+      <c r="D323" s="3"/>
+      <c r="E323" s="3"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="3"/>
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+      <c r="D324" s="3"/>
+      <c r="E324" s="3"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="3"/>
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
+      <c r="D325" s="3"/>
+      <c r="E325" s="3"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="3"/>
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+      <c r="D326" s="3"/>
+      <c r="E326" s="3"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="3"/>
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
+      <c r="D327" s="3"/>
+      <c r="E327" s="3"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="3"/>
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
+      <c r="D328" s="3"/>
+      <c r="E328" s="3"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="3"/>
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
+      <c r="D329" s="3"/>
+      <c r="E329" s="3"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="3"/>
+      <c r="B330" s="3"/>
+      <c r="C330" s="3"/>
+      <c r="D330" s="3"/>
+      <c r="E330" s="3"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="3"/>
+      <c r="B331" s="3"/>
+      <c r="C331" s="3"/>
+      <c r="D331" s="3"/>
+      <c r="E331" s="3"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="3"/>
+      <c r="B332" s="3"/>
+      <c r="C332" s="3"/>
+      <c r="D332" s="3"/>
+      <c r="E332" s="3"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="3"/>
+      <c r="B333" s="3"/>
+      <c r="C333" s="3"/>
+      <c r="D333" s="3"/>
+      <c r="E333" s="3"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="3"/>
+      <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
+      <c r="D334" s="3"/>
+      <c r="E334" s="3"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="3"/>
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
+      <c r="D335" s="3"/>
+      <c r="E335" s="3"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="3"/>
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
+      <c r="D336" s="3"/>
+      <c r="E336" s="3"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="3"/>
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
+      <c r="D337" s="3"/>
+      <c r="E337" s="3"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="3"/>
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
+      <c r="D338" s="3"/>
+      <c r="E338" s="3"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="3"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="3"/>
+      <c r="E339" s="3"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="3"/>
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
+      <c r="D340" s="3"/>
+      <c r="E340" s="3"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="3"/>
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="3"/>
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="3"/>
+      <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="3"/>
+      <c r="B344" s="3"/>
+      <c r="C344" s="3"/>
+      <c r="D344" s="3"/>
+      <c r="E344" s="3"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="3"/>
+      <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="3"/>
+      <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
+      <c r="D346" s="3"/>
+      <c r="E346" s="3"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="3"/>
+      <c r="B347" s="3"/>
+      <c r="C347" s="3"/>
+      <c r="D347" s="3"/>
+      <c r="E347" s="3"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="3"/>
+      <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
+      <c r="D348" s="3"/>
+      <c r="E348" s="3"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="3"/>
+      <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
+      <c r="D349" s="3"/>
+      <c r="E349" s="3"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="3"/>
+      <c r="B350" s="3"/>
+      <c r="C350" s="3"/>
+      <c r="D350" s="3"/>
+      <c r="E350" s="3"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="3"/>
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
+      <c r="D351" s="3"/>
+      <c r="E351" s="3"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="3"/>
+      <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
+      <c r="D352" s="3"/>
+      <c r="E352" s="3"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="3"/>
+      <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
+      <c r="D353" s="3"/>
+      <c r="E353" s="3"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="3"/>
+      <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
+      <c r="D354" s="3"/>
+      <c r="E354" s="3"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="3"/>
+      <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
+      <c r="D355" s="3"/>
+      <c r="E355" s="3"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="3"/>
+      <c r="B356" s="3"/>
+      <c r="C356" s="3"/>
+      <c r="D356" s="3"/>
+      <c r="E356" s="3"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="3"/>
+      <c r="B357" s="3"/>
+      <c r="C357" s="3"/>
+      <c r="D357" s="3"/>
+      <c r="E357" s="3"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="3"/>
+      <c r="B358" s="3"/>
+      <c r="C358" s="3"/>
+      <c r="D358" s="3"/>
+      <c r="E358" s="3"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="3"/>
+      <c r="B359" s="3"/>
+      <c r="C359" s="3"/>
+      <c r="D359" s="3"/>
+      <c r="E359" s="3"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="3"/>
+      <c r="B360" s="3"/>
+      <c r="C360" s="3"/>
+      <c r="D360" s="3"/>
+      <c r="E360" s="3"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="3"/>
+      <c r="B361" s="3"/>
+      <c r="C361" s="3"/>
+      <c r="D361" s="3"/>
+      <c r="E361" s="3"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="3"/>
+      <c r="B362" s="3"/>
+      <c r="C362" s="3"/>
+      <c r="D362" s="3"/>
+      <c r="E362" s="3"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="3"/>
+      <c r="B363" s="3"/>
+      <c r="C363" s="3"/>
+      <c r="D363" s="3"/>
+      <c r="E363" s="3"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="3"/>
+      <c r="B364" s="3"/>
+      <c r="C364" s="3"/>
+      <c r="D364" s="3"/>
+      <c r="E364" s="3"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="3"/>
+      <c r="B365" s="3"/>
+      <c r="C365" s="3"/>
+      <c r="D365" s="3"/>
+      <c r="E365" s="3"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="3"/>
+      <c r="B366" s="3"/>
+      <c r="C366" s="3"/>
+      <c r="D366" s="3"/>
+      <c r="E366" s="3"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="3"/>
+      <c r="B367" s="3"/>
+      <c r="C367" s="3"/>
+      <c r="D367" s="3"/>
+      <c r="E367" s="3"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="3"/>
+      <c r="B368" s="3"/>
+      <c r="C368" s="3"/>
+      <c r="D368" s="3"/>
+      <c r="E368" s="3"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="3"/>
+      <c r="B369" s="3"/>
+      <c r="C369" s="3"/>
+      <c r="D369" s="3"/>
+      <c r="E369" s="3"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="3"/>
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="3"/>
+      <c r="B371" s="3"/>
+      <c r="C371" s="3"/>
+      <c r="D371" s="3"/>
+      <c r="E371" s="3"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="3"/>
+      <c r="B372" s="3"/>
+      <c r="C372" s="3"/>
+      <c r="D372" s="3"/>
+      <c r="E372" s="3"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="3"/>
+      <c r="B373" s="3"/>
+      <c r="C373" s="3"/>
+      <c r="D373" s="3"/>
+      <c r="E373" s="3"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="3"/>
+      <c r="B374" s="3"/>
+      <c r="C374" s="3"/>
+      <c r="D374" s="3"/>
+      <c r="E374" s="3"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="3"/>
+      <c r="B375" s="3"/>
+      <c r="C375" s="3"/>
+      <c r="D375" s="3"/>
+      <c r="E375" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:E322" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FactCurrencyRate"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
